--- a/biology/Zoologie/Concinnia_tenuis/Concinnia_tenuis.xlsx
+++ b/biology/Zoologie/Concinnia_tenuis/Concinnia_tenuis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Concinnia tenuis est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concinnia tenuis est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud et dans le sud du Queensland[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud et dans le sud du Queensland.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gray, 1831 "1830" : A synopsis of the species of Class Reptilia. The animal kingdom arranged in conformity with its organisation by the Baron Cuvier with additional descriptions of all the species hither named, and of many before noticed, V Whittaker, Treacher and Co., London, vol. 9, Supplement, p. 1-110 (texte intégral).</t>
         </is>
